--- a/Projeto 3/Planilha auxiliar 1.xlsx
+++ b/Projeto 3/Planilha auxiliar 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MECA\LETS CODE\MeusProjetos\Projetos-Lets-Code\Projeto 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FE9B8F-C90E-40EE-93DE-4331F1ACF33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB423E77-F4AD-4EC9-AF0D-B91EC8DDBAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FA27F432-AD31-4CF2-B71F-566458D4F7AD}"/>
   </bookViews>
@@ -221,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,12 +288,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -322,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -364,9 +358,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -685,34 +676,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08551C81-96BA-4359-A4ED-5DA5F083CD7F}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="12.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.53515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.69140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.69140625" customWidth="1"/>
-    <col min="11" max="11" width="8.69140625" style="1"/>
-    <col min="12" max="12" width="10.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.23046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.69140625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="24.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="25.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.69140625" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7265625" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="10.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7265625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="25.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2">
         <v>2015</v>
@@ -752,7 +743,7 @@
       <c r="V1" s="14"/>
       <c r="W1" s="14"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -819,7 +810,7 @@
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -888,7 +879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -955,7 +946,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1016,7 +1007,7 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1077,7 +1068,7 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1104,7 +1095,7 @@
       </c>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1131,7 +1122,7 @@
       </c>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1160,34 +1151,34 @@
       <c r="K9" s="2">
         <v>2015</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="2" t="s">
         <v>25</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="15" t="s">
+      <c r="R9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="S9" s="15" t="s">
+      <c r="S9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="T9" s="15" t="s">
+      <c r="T9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="U9" s="15" t="s">
+      <c r="U9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V9" s="2" t="s">
@@ -1199,7 +1190,7 @@
       <c r="X9" s="2"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1269,7 +1260,7 @@
       </c>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1380,7 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="K13" s="2">
         <v>2019</v>
       </c>
@@ -1426,7 +1417,7 @@
       <c r="X13" s="2"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
